--- a/2019 - 02/[수리금융학과] 금융공학2/금융공학2 과제.xlsx
+++ b/2019 - 02/[수리금융학과] 금융공학2/금융공학2 과제.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$H$18</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -70,6 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -135,16 +141,121 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -155,23 +266,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,26 +601,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:S22"/>
+  <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="4" t="s">
+    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15">
+        <f t="shared" ref="G2:G21" si="0">$D$3 * ((1+$D$5)^F2) * ((1 + $D$6)^($D$7-F2)) - $D$2</f>
+        <v>-10.24970022987354</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="D3" s="5">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="9">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>-8.234542658759878</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="9">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>-6.1786748336843544</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="9">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.0812743252739381</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-0.01</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="9">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.9415020894208652</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -483,20 +733,23 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="9">
+        <v>30</v>
+      </c>
+      <c r="G7" s="16">
+        <f>$D$3 * ((1+$D$5)^F7) * ((1 + $D$6)^($D$7-F7)) - $D$2</f>
+        <v>0.24149786836862575</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -506,20 +759,23 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="9">
+        <v>31</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4685988354063255</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -529,20 +785,24 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>-1E-3</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <f xml:space="preserve"> (D4 - D6) / (D5 - D6)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="9">
+        <v>32</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>4.7406917411721565</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -552,20 +812,24 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
+    </row>
+    <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8">
+        <f>D9 * (1+D5)/(1+D4)</f>
+        <v>0.75373134328358227</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="9">
+        <v>33</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="0"/>
+        <v>7.058685513721116</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -575,20 +839,19 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="9">
+        <v>34</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
+        <v>9.4235074432912285</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -598,20 +861,24 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
+    </row>
+    <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <f>$D$3 * ((1+$D$5)^C12) * ((1 + $D$6)^($D$7-C12)) - $D$2</f>
+        <v>-49.499393286246388</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="9">
+        <v>35</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" si="0"/>
+        <v>11.836103553256692</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -621,20 +888,24 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.75370000000000004</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
+    </row>
+    <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" ref="D13:D15" si="1">$D$3 * ((1+$D$5)^C13) * ((1 + $D$6)^($D$7-C13)) - $D$2</f>
+        <v>-48.277158807180655</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="9">
+        <v>36</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>14.297438978575002</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -644,16 +915,24 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    </row>
+    <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="1"/>
+        <v>-47.030232722477223</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="9">
+        <v>37</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="0"/>
+        <v>16.80849835187955</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -663,18 +942,24 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+    </row>
+    <row r="15" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="1"/>
+        <v>-45.758116211820209</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="9">
+        <v>38</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
+        <v>19.37028619737211</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -684,18 +969,19 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    </row>
+    <row r="16" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="9">
+        <v>39</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="0"/>
+        <v>21.98382733267249</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -705,18 +991,24 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    </row>
+    <row r="17" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="13">
+        <f>D3 * (1 - _xlfn.BINOM.DIST(D8 - 1, D7,D10, 1)) -D2/( 1 + D4)^D7 * (1 - _xlfn.BINOM.DIST(D8 - 1, D7,D9, 1))</f>
+        <v>14.294894118193071</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="10">
+        <v>40</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>24.650167278787137</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -726,16 +1018,12 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -747,11 +1035,9 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -766,68 +1052,14 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
